--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/Total Silica.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/Total Silica.xlsx
@@ -527,40 +527,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="E3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="G3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="H3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="I3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="J3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="K3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="L3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="M3" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="4">
@@ -569,42 +569,18 @@
           <t>Weipa</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -742,40 +718,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="C8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="E8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="F8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="H8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="J8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="K8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="L8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="M8" t="n">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -827,42 +803,18 @@
           <t>Kuantan &amp; Johor</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.042</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1043,40 +995,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="16">
@@ -1129,40 +1081,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="C17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="D17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="E17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="F17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="G17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="H17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="I17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="J17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="K17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="L17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
@@ -1258,40 +1210,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="L20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1472,42 +1424,18 @@
           <t>Metro BH1**</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.0951</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1515,42 +1443,18 @@
           <t>Amrun#</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1602,40 +1506,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0447</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="29">
@@ -1644,42 +1548,18 @@
           <t>SMB Malapouya/Boké</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.02</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1731,40 +1611,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.104040295959743</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.104220750718502</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.104559592000252</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.105166347036347</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.105937978740902</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.106744555907572</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0.107580242287562</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>0.108442233496206</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>0.109329333300128</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.110241468517954</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>0.111179582492575</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>0.112145794353648</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1773,42 +1653,18 @@
           <t>Metro BH1 Xinfa*</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.0951</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.0951</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1817,40 +1673,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.015</v>
+        <v>0.104040296</v>
       </c>
       <c r="C33" t="n">
-        <v>0.015</v>
+        <v>0.104220751</v>
       </c>
       <c r="D33" t="n">
-        <v>0.015</v>
+        <v>0.104559592</v>
       </c>
       <c r="E33" t="n">
-        <v>0.015</v>
+        <v>0.105166347</v>
       </c>
       <c r="F33" t="n">
-        <v>0.015</v>
+        <v>0.105937979</v>
       </c>
       <c r="G33" t="n">
-        <v>0.015</v>
+        <v>0.106744556</v>
       </c>
       <c r="H33" t="n">
-        <v>0.015</v>
+        <v>0.107580242</v>
       </c>
       <c r="I33" t="n">
-        <v>0.015</v>
+        <v>0.108442233</v>
       </c>
       <c r="J33" t="n">
-        <v>0.015</v>
+        <v>0.109329333</v>
       </c>
       <c r="K33" t="n">
-        <v>0.015</v>
+        <v>0.110241469</v>
       </c>
       <c r="L33" t="n">
-        <v>0.015</v>
+        <v>0.111179582</v>
       </c>
       <c r="M33" t="n">
-        <v>0.015</v>
+        <v>0.112145794</v>
       </c>
     </row>
     <row r="34">
@@ -1902,42 +1758,18 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2032,40 +1864,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="39">
@@ -2118,40 +1950,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41">
@@ -2160,42 +1992,18 @@
           <t>SMB Santou-Houda</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.02</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2247,40 +2055,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="C43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="D43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="E43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="F43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="G43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="H43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="I43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="J43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="K43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="L43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="M43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
     </row>
   </sheetData>
